--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\micha\EEBio\eebio-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{387AC656-078B-444D-A1EC-BA3E65C551A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B75399-2D51-4A77-BD60-309B0DFE4E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6936" yWindow="25812" windowWidth="30936" windowHeight="18696" xr2:uid="{EDE78A64-131A-4A23-B3AE-2C041045DE01}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{EDE78A64-131A-4A23-B3AE-2C041045DE01}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic information" sheetId="2" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>Flow 1</t>
   </si>
   <si>
-    <t>BL1-H,FSC-A</t>
-  </si>
-  <si>
     <t>MC</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>../../flopr-master/examples/flow_cytometry/DATA/20191121</t>
+  </si>
+  <si>
+    <t>BL1-H, FSC-A</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,7 +1124,7 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1140,7 +1140,7 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1148,7 +1148,7 @@
         <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1164,7 +1164,7 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1172,7 +1172,7 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1180,7 +1180,7 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
